--- a/all_states.xlsx
+++ b/all_states.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejwork/Dropbox/Bath/003 AI/assignment02/dicegamesolver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288118C-2470-A247-888D-92E8A0CC8D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136111C1-98A5-BE43-B510-5E8EDBC5861B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="-1440" windowWidth="28040" windowHeight="16260" xr2:uid="{689FBD24-C8A5-FB46-934F-AB6693C6712D}"/>
+    <workbookView xWindow="-34380" yWindow="-1440" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{689FBD24-C8A5-FB46-934F-AB6693C6712D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Outcomes" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Gamma tunning" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,13 +33,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Running 1000 games</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>2 dice / 3 sides</t>
+  </si>
+  <si>
+    <t>3 dice / 6 sides</t>
+  </si>
+  <si>
+    <t>6 dice / 6 sides</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C52C501-BDC4-C240-95D0-C2DDD38DED12}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -392,80 +444,79 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" customWidth="1"/>
-    <col min="18" max="18" width="3" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" customWidth="1"/>
-    <col min="22" max="22" width="2.83203125" customWidth="1"/>
-    <col min="23" max="23" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <v>3</v>
-      </c>
-      <c r="K1">
-        <v>3</v>
-      </c>
-      <c r="M1">
-        <v>4</v>
-      </c>
-      <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="O1">
-        <v>4</v>
-      </c>
-      <c r="Q1">
-        <v>5</v>
-      </c>
-      <c r="R1">
-        <v>5</v>
-      </c>
-      <c r="S1">
-        <v>5</v>
-      </c>
-      <c r="U1">
-        <v>6</v>
-      </c>
-      <c r="V1">
-        <v>6</v>
-      </c>
-      <c r="W1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +524,9 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>C1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
@@ -483,39 +536,43 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>G1+1</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <f>K1+1</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
       <c r="Q2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -523,49 +580,49 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">C2+1</f>
-        <v>3</v>
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <f>F2+1</f>
+        <v>3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">G2+1</f>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <f>I2+1</f>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="2">K2+1</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <v>6</v>
       </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -573,40 +630,49 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="C4:C7" si="0">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <f t="shared" ref="F4:F6" si="1">F3+1</f>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <f t="shared" ref="I4:I5" si="2">I3+1</f>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>6</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -615,38 +681,39 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -655,19 +722,26 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -675,37 +749,38 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -713,8 +788,11 @@
       <c r="K7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -722,29 +800,28 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f>C7+1</f>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -752,29 +829,29 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C11" si="3">C8+1</f>
-        <v>4</v>
+        <f>C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -782,29 +859,29 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="C10:C12" si="3">C9+1</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -813,39 +890,49 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -853,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -873,19 +960,19 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -893,27 +980,36 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -957,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,10 +1061,1447 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC4D78E-4EF1-A241-9029-2BC6884AC8D9}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13.29</v>
+      </c>
+      <c r="B3">
+        <v>0.43</v>
+      </c>
+      <c r="D3">
+        <v>4.24</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="G3">
+        <v>28.7</v>
+      </c>
+      <c r="H3">
+        <v>55.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13.33</v>
+      </c>
+      <c r="B4">
+        <v>0.42</v>
+      </c>
+      <c r="D4">
+        <v>4.26</v>
+      </c>
+      <c r="E4">
+        <v>0.09</v>
+      </c>
+      <c r="G4">
+        <v>29.2</v>
+      </c>
+      <c r="H4">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13.38</v>
+      </c>
+      <c r="B5">
+        <v>0.42</v>
+      </c>
+      <c r="D5">
+        <v>4.24</v>
+      </c>
+      <c r="E5">
+        <v>0.09</v>
+      </c>
+      <c r="G5">
+        <v>27.7</v>
+      </c>
+      <c r="H5">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13.29</v>
+      </c>
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="D6">
+        <v>4.24</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="G6">
+        <v>29.3</v>
+      </c>
+      <c r="H6">
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13.37</v>
+      </c>
+      <c r="B7">
+        <v>0.42</v>
+      </c>
+      <c r="D7">
+        <v>4.22</v>
+      </c>
+      <c r="E7">
+        <v>0.09</v>
+      </c>
+      <c r="G7">
+        <v>27.8</v>
+      </c>
+      <c r="H7">
+        <v>55.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13.39</v>
+      </c>
+      <c r="B8">
+        <v>0.41</v>
+      </c>
+      <c r="D8">
+        <v>4.26</v>
+      </c>
+      <c r="E8">
+        <v>0.09</v>
+      </c>
+      <c r="G8">
+        <v>28.3</v>
+      </c>
+      <c r="H8">
+        <v>55.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13.29</v>
+      </c>
+      <c r="B9">
+        <v>0.42</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+      <c r="E9">
+        <v>0.09</v>
+      </c>
+      <c r="G9">
+        <v>30.7</v>
+      </c>
+      <c r="H9">
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13.36</v>
+      </c>
+      <c r="B10">
+        <v>0.42</v>
+      </c>
+      <c r="D10">
+        <v>4.28</v>
+      </c>
+      <c r="E10">
+        <v>0.09</v>
+      </c>
+      <c r="G10">
+        <v>29.1</v>
+      </c>
+      <c r="H10">
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>13.3</v>
+      </c>
+      <c r="B11">
+        <v>0.42</v>
+      </c>
+      <c r="D11">
+        <v>4.28</v>
+      </c>
+      <c r="E11">
+        <v>0.09</v>
+      </c>
+      <c r="G11">
+        <v>29.1</v>
+      </c>
+      <c r="H11">
+        <v>55.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13.32</v>
+      </c>
+      <c r="B12">
+        <v>0.41</v>
+      </c>
+      <c r="D12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.09</v>
+      </c>
+      <c r="G12">
+        <v>29.3</v>
+      </c>
+      <c r="H12">
+        <v>55.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f>AVERAGE(A3:A12)</f>
+        <v>13.331999999999999</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:H13" si="0">AVERAGE(B3:B12)</f>
+        <v>0.41899999999999993</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>28.919999999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>55.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD43C483-EF0D-5A4A-82F8-9FA3C6C8F175}">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
+        <v>11.84</v>
+      </c>
+      <c r="C3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F3">
+        <v>12.7</v>
+      </c>
+      <c r="G3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>13.37</v>
+      </c>
+      <c r="K3">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.81</v>
+      </c>
+      <c r="B4">
+        <v>12.01</v>
+      </c>
+      <c r="C4">
+        <v>0.64</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F4">
+        <v>12.686999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.754</v>
+      </c>
+      <c r="I4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>13.347</v>
+      </c>
+      <c r="K4">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.82</v>
+      </c>
+      <c r="B5">
+        <v>11.79</v>
+      </c>
+      <c r="C5">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F5">
+        <v>12.737</v>
+      </c>
+      <c r="G5">
+        <v>0.75</v>
+      </c>
+      <c r="I5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>13.388</v>
+      </c>
+      <c r="K5">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.83</v>
+      </c>
+      <c r="B6">
+        <v>12.26</v>
+      </c>
+      <c r="C6">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>12.638</v>
+      </c>
+      <c r="G6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J6">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.84</v>
+      </c>
+      <c r="B7">
+        <v>12.17</v>
+      </c>
+      <c r="C7">
+        <v>0.67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F7">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J7">
+        <v>13.472</v>
+      </c>
+      <c r="K7">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.85</v>
+      </c>
+      <c r="B8">
+        <v>12.24</v>
+      </c>
+      <c r="C8">
+        <v>0.68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F8">
+        <v>12.749000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.105</v>
+      </c>
+      <c r="J8">
+        <v>13.208</v>
+      </c>
+      <c r="K8">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.86</v>
+      </c>
+      <c r="B9">
+        <v>12.45</v>
+      </c>
+      <c r="C9">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F9">
+        <v>12.875999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.125</v>
+      </c>
+      <c r="J9">
+        <v>13.287000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.87</v>
+      </c>
+      <c r="B10">
+        <v>12.42</v>
+      </c>
+      <c r="C10">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F10">
+        <v>12.821999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.85</v>
+      </c>
+      <c r="I10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J10">
+        <v>13.377000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.88</v>
+      </c>
+      <c r="B11">
+        <v>12.73</v>
+      </c>
+      <c r="C11">
+        <v>0.76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F11">
+        <v>12.763999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J11">
+        <v>13.132999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.89</v>
+      </c>
+      <c r="B12">
+        <v>12.84</v>
+      </c>
+      <c r="C12">
+        <v>0.84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F12">
+        <v>12.856999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.185</v>
+      </c>
+      <c r="J12">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13">
+        <v>12.86</v>
+      </c>
+      <c r="C13">
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>12.815</v>
+      </c>
+      <c r="G13">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J13">
+        <v>13.287000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.91</v>
+      </c>
+      <c r="B14">
+        <v>12.8</v>
+      </c>
+      <c r="C14">
+        <v>0.85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F14">
+        <v>12.73</v>
+      </c>
+      <c r="G14">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J14">
+        <v>13.369</v>
+      </c>
+      <c r="K14">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.92</v>
+      </c>
+      <c r="B15">
+        <v>12.87</v>
+      </c>
+      <c r="C15">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F15">
+        <v>12.829000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.245</v>
+      </c>
+      <c r="J15">
+        <v>13.353</v>
+      </c>
+      <c r="K15">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.93</v>
+      </c>
+      <c r="B16">
+        <v>13.04</v>
+      </c>
+      <c r="C16">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F16">
+        <v>12.898</v>
+      </c>
+      <c r="G16">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J16">
+        <v>13.252000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.94</v>
+      </c>
+      <c r="B17">
+        <v>13.09</v>
+      </c>
+      <c r="C17">
+        <v>1.06</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F17">
+        <v>13.141999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J17">
+        <v>13.363</v>
+      </c>
+      <c r="K17">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.95</v>
+      </c>
+      <c r="B18">
+        <v>13.29</v>
+      </c>
+      <c r="C18">
+        <v>1.17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F18">
+        <v>12.946999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J18">
+        <v>13.145</v>
+      </c>
+      <c r="K18">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.96</v>
+      </c>
+      <c r="B19">
+        <v>13.38</v>
+      </c>
+      <c r="C19">
+        <v>1.35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F19">
+        <v>12.952999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J19">
+        <v>13.236000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.97</v>
+      </c>
+      <c r="B20">
+        <v>13.39</v>
+      </c>
+      <c r="C20">
+        <v>1.21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F20">
+        <v>12.891</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+      <c r="I20">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J20">
+        <v>13.393000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.98</v>
+      </c>
+      <c r="B21">
+        <v>13.37</v>
+      </c>
+      <c r="C21">
+        <v>1.3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J21">
+        <v>13.346</v>
+      </c>
+      <c r="K21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F22">
+        <v>12.97</v>
+      </c>
+      <c r="G22">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I22">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J22">
+        <v>13.247</v>
+      </c>
+      <c r="K22">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F23">
+        <v>12.94</v>
+      </c>
+      <c r="G23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I23">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J23">
+        <v>13.303000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F24">
+        <v>12.975</v>
+      </c>
+      <c r="G24">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J24">
+        <v>13.292</v>
+      </c>
+      <c r="K24">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F25">
+        <v>12.95</v>
+      </c>
+      <c r="G25">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="J25">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F26">
+        <v>12.981999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="J26">
+        <v>13.340999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F27">
+        <v>13.077</v>
+      </c>
+      <c r="G27">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I27">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J27">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F28">
+        <v>13.089</v>
+      </c>
+      <c r="G28">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I28">
+        <v>0.505</v>
+      </c>
+      <c r="J28">
+        <v>13.387</v>
+      </c>
+      <c r="K28">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F29">
+        <v>13.037000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J29">
+        <v>13.273999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F30">
+        <v>12.948</v>
+      </c>
+      <c r="G30">
+        <v>0.95</v>
+      </c>
+      <c r="I30">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J30">
+        <v>13.32</v>
+      </c>
+      <c r="K30">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="F31">
+        <v>13.009</v>
+      </c>
+      <c r="G31">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I31">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J31">
+        <v>13.234999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F32">
+        <v>13.154</v>
+      </c>
+      <c r="G32">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I32">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J32">
+        <v>13.254</v>
+      </c>
+      <c r="K32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F33">
+        <v>13.180999999999999</v>
+      </c>
+      <c r="G33">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F34">
+        <v>13.22</v>
+      </c>
+      <c r="G34">
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E35" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F35">
+        <v>13.36</v>
+      </c>
+      <c r="G35">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F36">
+        <v>13.279</v>
+      </c>
+      <c r="G36">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F37">
+        <v>13.202</v>
+      </c>
+      <c r="G37">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F38">
+        <v>13.475</v>
+      </c>
+      <c r="G38">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F39">
+        <v>13.347</v>
+      </c>
+      <c r="G39">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F40">
+        <v>13.332000000000001</v>
+      </c>
+      <c r="G40">
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F41">
+        <v>13.398999999999999</v>
+      </c>
+      <c r="G41">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F42">
+        <v>13.356999999999999</v>
+      </c>
+      <c r="G42">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F43">
+        <v>13.438000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F44">
+        <v>13.275</v>
+      </c>
+      <c r="G44">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="F45">
+        <v>13.454000000000001</v>
+      </c>
+      <c r="G45">
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F46">
+        <v>13.378</v>
+      </c>
+      <c r="G46">
+        <v>1.1659999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F47">
+        <v>13.451000000000001</v>
+      </c>
+      <c r="G47">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F48">
+        <v>13.13</v>
+      </c>
+      <c r="G48">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F49">
+        <v>13.3</v>
+      </c>
+      <c r="G49">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F50">
+        <v>13.384</v>
+      </c>
+      <c r="G50">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F51">
+        <v>13.45</v>
+      </c>
+      <c r="G51">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F52">
+        <v>13.169</v>
+      </c>
+      <c r="G52">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F53">
+        <v>13.302</v>
+      </c>
+      <c r="G53">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F54">
+        <v>13.217000000000001</v>
+      </c>
+      <c r="G54">
+        <v>1.3220000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F55">
+        <v>13.276999999999999</v>
+      </c>
+      <c r="G55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F56">
+        <v>12.971</v>
+      </c>
+      <c r="G56">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F57">
+        <v>13.180999999999999</v>
+      </c>
+      <c r="G57">
+        <v>1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F58">
+        <v>13.129</v>
+      </c>
+      <c r="G58">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F59">
+        <v>13.209</v>
+      </c>
+      <c r="G59">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F60">
+        <v>12.984999999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F61">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="G61">
+        <v>1.415</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="F62">
+        <v>13.026999999999999</v>
+      </c>
+      <c r="G62">
+        <v>1.4079999999999999</v>
       </c>
     </row>
   </sheetData>
